--- a/API-list.xlsx
+++ b/API-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/my_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E1BF4CF9-EA29-8249-95BE-7FB8B75352DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4173398A-DD90-5643-949E-C4BF055743D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{C7444DF2-FD78-5740-BB2D-3EEBAA5C5D3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{C7444DF2-FD78-5740-BB2D-3EEBAA5C5D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>addadminuser</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>{"api":"rejectuser"}</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>{"api":"logout"}</t>
+  </si>
+  <si>
+    <t>{"code":"200","msg":{}}</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430BBB-50BD-0846-9C48-F79F306373CB}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,7 +837,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/API-list.xlsx
+++ b/API-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/my_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4173398A-DD90-5643-949E-C4BF055743D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA1CA896-DEEA-DC47-8C3F-1E51CF47F219}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{C7444DF2-FD78-5740-BB2D-3EEBAA5C5D3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>addadminuser</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>{"code":"200","msg":{}}</t>
+  </si>
+  <si>
+    <t>gethistory</t>
+  </si>
+  <si>
+    <t>{"api":"gethistory","day","months","year"}</t>
+  </si>
+  <si>
+    <t>getuser</t>
+  </si>
+  <si>
+    <t>{"code":"201","msg":{"error"}</t>
+  </si>
+  <si>
+    <t>{"api":"getuser"}</t>
   </si>
 </sst>
 </file>
@@ -509,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430BBB-50BD-0846-9C48-F79F306373CB}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,6 +897,96 @@
         <v>29</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/API-list.xlsx
+++ b/API-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/my_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA1CA896-DEEA-DC47-8C3F-1E51CF47F219}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84667E3E-7ED0-7A46-9E6B-45D516CCA11D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{C7444DF2-FD78-5740-BB2D-3EEBAA5C5D3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
   <si>
     <t>addadminuser</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>{"api":"getuser"}</t>
+  </si>
+  <si>
+    <t>ApproveProject</t>
+  </si>
+  <si>
+    <t>getProject</t>
+  </si>
+  <si>
+    <t>{"api":"getProject"}</t>
   </si>
 </sst>
 </file>
@@ -178,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,12 +219,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430BBB-50BD-0846-9C48-F79F306373CB}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +1003,94 @@
         <v>38</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
